--- a/Logs/test_ppo/testing_episode_output.xlsx
+++ b/Logs/test_ppo/testing_episode_output.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,30 +405,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-210.75</v>
+        <v>-10.75</v>
       </c>
       <c r="B2">
         <v>10.39000034332275</v>
       </c>
       <c r="C2">
-        <v>200.3600006103516</v>
+        <v>0.3599996566772461</v>
       </c>
       <c r="D2">
-        <v>20.28392601013184</v>
+        <v>1.034648656845093</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>-456.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B3">
         <v>10.39000034332275</v>
       </c>
       <c r="C3">
-        <v>446.1099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D3">
-        <v>43.93647766113281</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -447,100 +447,100 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>-612.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B5">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C5">
-        <v>601.75</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D5">
-        <v>56.97674560546875</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>-66.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B6">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C6">
-        <v>56.36000061035156</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D6">
-        <v>6.424446582794189</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>-212.6199951171875</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B7">
         <v>10.39000034332275</v>
       </c>
       <c r="C7">
-        <v>202.2299957275391</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D7">
-        <v>20.46390724182129</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>-210.3800048828125</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B8">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C8">
-        <v>199.9900054931641</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D8">
-        <v>20.24831581115723</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>-256.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B9">
         <v>10.39000034332275</v>
       </c>
       <c r="C9">
-        <v>246.1100006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D9">
-        <v>24.68719863891602</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>-56.56000137329102</v>
+        <v>-12.1899995803833</v>
       </c>
       <c r="B10">
         <v>10.39000034332275</v>
       </c>
       <c r="C10">
-        <v>46.17000198364258</v>
+        <v>1.799999237060547</v>
       </c>
       <c r="D10">
-        <v>5.443696022033691</v>
+        <v>1.173243403434753</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>-256.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B11">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C11">
-        <v>245.75</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D11">
-        <v>23.86046600341797</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -573,44 +573,44 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>-256.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B14">
         <v>10.39000034332275</v>
       </c>
       <c r="C14">
-        <v>246.1100006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D14">
-        <v>24.68719863891602</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>-1879</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B15">
         <v>10.39000034332275</v>
       </c>
       <c r="C15">
-        <v>1868.609985351562</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D15">
-        <v>180.8469696044922</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>-10.39000034332275</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B16">
         <v>10.39000034332275</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,111 +618,111 @@
         <v>-56.56000137329102</v>
       </c>
       <c r="B17">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C17">
-        <v>45.81000137329102</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D17">
-        <v>5.261395454406738</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>-220.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B18">
         <v>10.39000034332275</v>
       </c>
       <c r="C18">
-        <v>210.1100006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D18">
-        <v>21.22232818603516</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>-18.52000045776367</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B19">
         <v>10.39000034332275</v>
       </c>
       <c r="C19">
-        <v>8.130000114440918</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D19">
-        <v>1.782483100891113</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>-56.56000137329102</v>
+        <v>-10.39000034332275</v>
       </c>
       <c r="B20">
         <v>10.39000034332275</v>
       </c>
       <c r="C20">
-        <v>46.17000198364258</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>5.443696022033691</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>-416.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B21">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C21">
-        <v>406.3599853515625</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D21">
-        <v>40.11068344116211</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>-10.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B22">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>-256.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B23">
         <v>10.39000034332275</v>
       </c>
       <c r="C23">
-        <v>246.1100006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D23">
-        <v>24.68719863891602</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>-210.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B24">
         <v>10.39000034332275</v>
       </c>
       <c r="C24">
-        <v>200.3600006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D24">
-        <v>20.28392601013184</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -741,16 +741,16 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>-1222</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B26">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C26">
-        <v>1211.609985351562</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D26">
-        <v>117.6130828857422</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -769,30 +769,30 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>-10.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B28">
         <v>10.39000034332275</v>
       </c>
       <c r="C28">
-        <v>0.3599996566772461</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D28">
-        <v>1.034648656845093</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>-474.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B29">
         <v>10.39000034332275</v>
       </c>
       <c r="C29">
-        <v>464.3599853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D29">
-        <v>45.69297409057617</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -811,16 +811,16 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>-16.21999931335449</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B31">
         <v>10.39000034332275</v>
       </c>
       <c r="C31">
-        <v>5.829998970031738</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D31">
-        <v>1.561116337776184</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -839,156 +839,156 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>-210.3800048828125</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B33">
         <v>10.39000034332275</v>
       </c>
       <c r="C33">
-        <v>199.9900054931641</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D33">
-        <v>20.24831581115723</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>-256.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B34">
         <v>10.39000034332275</v>
       </c>
       <c r="C34">
-        <v>246.1100006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D34">
-        <v>24.68719863891602</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>-410.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B35">
         <v>10.39000034332275</v>
       </c>
       <c r="C35">
-        <v>400.1099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D35">
-        <v>39.5091438293457</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>-12.89000034332275</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B36">
         <v>10.39000034332275</v>
       </c>
       <c r="C36">
-        <v>2.5</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D36">
-        <v>1.240615963935852</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>-625</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B37">
         <v>10.39000034332275</v>
       </c>
       <c r="C37">
-        <v>614.6099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D37">
-        <v>60.15399169921875</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>-10.39000034332275</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B38">
         <v>10.39000034332275</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>-12.72000026702881</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B39">
         <v>10.39000034332275</v>
       </c>
       <c r="C39">
-        <v>2.329999923706055</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D39">
-        <v>1.224254131317139</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>-476.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B40">
         <v>10.39000034332275</v>
       </c>
       <c r="C40">
-        <v>466.3599853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D40">
-        <v>45.88546371459961</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>-212.6199951171875</v>
+        <v>-66.55999755859375</v>
       </c>
       <c r="B41">
         <v>10.39000034332275</v>
       </c>
       <c r="C41">
-        <v>202.2299957275391</v>
+        <v>56.16999816894531</v>
       </c>
       <c r="D41">
-        <v>20.46390724182129</v>
+        <v>6.406159400939941</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>-210.3800048828125</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B42">
         <v>10.39000034332275</v>
       </c>
       <c r="C42">
-        <v>199.9900054931641</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D42">
-        <v>20.24831581115723</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>-256.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B43">
         <v>10.39000034332275</v>
       </c>
       <c r="C43">
-        <v>246.1100006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D43">
-        <v>24.68719863891602</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1007,352 +1007,352 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>-10.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B45">
         <v>10.39000034332275</v>
       </c>
       <c r="C45">
-        <v>0.3599996566772461</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D45">
-        <v>1.034648656845093</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>-817</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B46">
         <v>10.75</v>
       </c>
       <c r="C46">
-        <v>806.25</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D46">
-        <v>76</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>-210.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B47">
         <v>10.39000034332275</v>
       </c>
       <c r="C47">
-        <v>200.3600006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D47">
-        <v>20.28392601013184</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>-10.39000034332275</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B48">
         <v>10.39000034332275</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>-701.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B49">
         <v>10.39000034332275</v>
       </c>
       <c r="C49">
-        <v>691.1099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D49">
-        <v>67.51683807373047</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>-20.38999938964844</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B50">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C50">
-        <v>9.999999046325684</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D50">
-        <v>1.962463736534119</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>-256.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B51">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C51">
-        <v>245.75</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D51">
-        <v>23.86046600341797</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>-865</v>
+        <v>-12.1899995803833</v>
       </c>
       <c r="B52">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C52">
-        <v>854.25</v>
+        <v>1.799999237060547</v>
       </c>
       <c r="D52">
-        <v>80.46511840820312</v>
+        <v>1.173243403434753</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>-16.21999931335449</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B53">
         <v>10.39000034332275</v>
       </c>
       <c r="C53">
-        <v>5.829998970031738</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D53">
-        <v>1.561116337776184</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>-626.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B54">
         <v>10.39000034332275</v>
       </c>
       <c r="C54">
-        <v>616.1099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D54">
-        <v>60.29836273193359</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>-256.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B55">
         <v>10.39000034332275</v>
       </c>
       <c r="C55">
-        <v>246.1100006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D55">
-        <v>24.68719863891602</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>-12.1899995803833</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B56">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C56">
-        <v>1.439999580383301</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D56">
-        <v>1.133953452110291</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>-1239</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B57">
         <v>10.39000034332275</v>
       </c>
       <c r="C57">
-        <v>1228.609985351562</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D57">
-        <v>119.2492752075195</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>-12.72000026702881</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B58">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C58">
-        <v>1.970000267028809</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D58">
-        <v>1.183255791664124</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>-264.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B59">
         <v>10.39000034332275</v>
       </c>
       <c r="C59">
-        <v>254.3600006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D59">
-        <v>25.48123168945312</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>-226.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B60">
         <v>10.39000034332275</v>
       </c>
       <c r="C60">
-        <v>216.3600006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D60">
-        <v>21.82386779785156</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>-24.46999931335449</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B61">
         <v>10.39000034332275</v>
       </c>
       <c r="C61">
-        <v>14.07999897003174</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D61">
-        <v>2.355149030685425</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>-627.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B62">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C62">
-        <v>617.1099853515625</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D62">
-        <v>60.39460754394531</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>-66.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B63">
         <v>10.39000034332275</v>
       </c>
       <c r="C63">
-        <v>56.36000061035156</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D63">
-        <v>6.424446582794189</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>-210.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B64">
         <v>10.39000034332275</v>
       </c>
       <c r="C64">
-        <v>200.3600006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D64">
-        <v>20.28392601013184</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>-10.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B65">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>-56.56000137329102</v>
+        <v>-10.75</v>
       </c>
       <c r="B66">
         <v>10.39000034332275</v>
       </c>
       <c r="C66">
-        <v>46.17000198364258</v>
+        <v>0.3599996566772461</v>
       </c>
       <c r="D66">
-        <v>5.443696022033691</v>
+        <v>1.034648656845093</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>-66.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B67">
         <v>10.39000034332275</v>
       </c>
       <c r="C67">
-        <v>56.36000061035156</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D67">
-        <v>6.424446582794189</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>-612</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B68">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C68">
-        <v>601.6099853515625</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D68">
-        <v>58.90279006958008</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>-12.1899995803833</v>
+        <v>-10.75</v>
       </c>
       <c r="B69">
         <v>10.39000034332275</v>
       </c>
       <c r="C69">
-        <v>1.799999237060547</v>
+        <v>0.3599996566772461</v>
       </c>
       <c r="D69">
-        <v>1.173243403434753</v>
+        <v>1.034648656845093</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>-56.56000137329102</v>
       </c>
       <c r="B70">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C70">
-        <v>45.81000137329102</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D70">
-        <v>5.261395454406738</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,139 +1374,139 @@
         <v>-56.56000137329102</v>
       </c>
       <c r="B71">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C71">
-        <v>46.17000198364258</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D71">
-        <v>5.443696022033691</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>-10.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B72">
         <v>10.39000034332275</v>
       </c>
       <c r="C72">
-        <v>0.3599996566772461</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D72">
-        <v>1.034648656845093</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>-667</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B73">
         <v>10.39000034332275</v>
       </c>
       <c r="C73">
-        <v>656.6099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D73">
-        <v>64.19634246826172</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>-10.75</v>
+        <v>-12.1899995803833</v>
       </c>
       <c r="B74">
         <v>10.39000034332275</v>
       </c>
       <c r="C74">
-        <v>0.3599996566772461</v>
+        <v>1.799999237060547</v>
       </c>
       <c r="D74">
-        <v>1.034648656845093</v>
+        <v>1.173243403434753</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>-66.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B75">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C75">
-        <v>56.36000061035156</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D75">
-        <v>6.424446582794189</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>-218.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B76">
         <v>10.39000034332275</v>
       </c>
       <c r="C76">
-        <v>208.1100006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D76">
-        <v>21.02983474731445</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>-10.39000034332275</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B77">
         <v>10.39000034332275</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>-12.1899995803833</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B78">
         <v>10.39000034332275</v>
       </c>
       <c r="C78">
-        <v>1.799999237060547</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D78">
-        <v>1.173243403434753</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>-16.21999931335449</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B79">
         <v>10.39000034332275</v>
       </c>
       <c r="C79">
-        <v>5.829998970031738</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D79">
-        <v>1.561116337776184</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>-56.56000137329102</v>
+        <v>-12.1899995803833</v>
       </c>
       <c r="B80">
         <v>10.39000034332275</v>
       </c>
       <c r="C80">
-        <v>46.17000198364258</v>
+        <v>1.799999237060547</v>
       </c>
       <c r="D80">
-        <v>5.443696022033691</v>
+        <v>1.173243403434753</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>-56.56000137329102</v>
       </c>
       <c r="B81">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C81">
-        <v>45.81000137329102</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D81">
-        <v>5.261395454406738</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1539,72 +1539,72 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>-410.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B83">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C83">
-        <v>400.1099853515625</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D83">
-        <v>39.5091438293457</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>-420.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B84">
         <v>10.39000034332275</v>
       </c>
       <c r="C84">
-        <v>410.1099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D84">
-        <v>40.47160720825195</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>-10.39000034332275</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B85">
         <v>10.39000034332275</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>-222.25</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B86">
         <v>10.39000034332275</v>
       </c>
       <c r="C86">
-        <v>211.8600006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D86">
-        <v>21.39076042175293</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>-264.75</v>
+        <v>-10.39000034332275</v>
       </c>
       <c r="B87">
         <v>10.39000034332275</v>
       </c>
       <c r="C87">
-        <v>254.3600006103516</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>25.48123168945312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1623,58 +1623,58 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>-612</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B89">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C89">
-        <v>601.6099853515625</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D89">
-        <v>58.90279006958008</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>-611</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B90">
         <v>10.39000034332275</v>
       </c>
       <c r="C90">
-        <v>600.6099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D90">
-        <v>58.80654144287109</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>-210.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B91">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C91">
-        <v>200</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D91">
-        <v>19.60465049743652</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>-256.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B92">
         <v>10.39000034332275</v>
       </c>
       <c r="C92">
-        <v>246.1100006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D92">
-        <v>24.68719863891602</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1682,27 +1682,27 @@
         <v>-56.56000137329102</v>
       </c>
       <c r="B93">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C93">
-        <v>45.81000137329102</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D93">
-        <v>5.261395454406738</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>-12.67000007629395</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B94">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C94">
-        <v>1.920000076293945</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D94">
-        <v>1.178604602813721</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1721,58 +1721,58 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>-56.56000137329102</v>
+        <v>-10.39000034332275</v>
       </c>
       <c r="B96">
         <v>10.39000034332275</v>
       </c>
       <c r="C96">
-        <v>46.17000198364258</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>5.443696022033691</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>-210.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B97">
         <v>10.39000034332275</v>
       </c>
       <c r="C97">
-        <v>200.3600006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D97">
-        <v>20.28392601013184</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>-210.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B98">
         <v>10.39000034332275</v>
       </c>
       <c r="C98">
-        <v>200.3600006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D98">
-        <v>20.28392601013184</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>-666.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B99">
         <v>10.39000034332275</v>
       </c>
       <c r="C99">
-        <v>656.1099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D99">
-        <v>64.14821624755859</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1780,69 +1780,69 @@
         <v>-56.56000137329102</v>
       </c>
       <c r="B100">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C100">
-        <v>45.81000137329102</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D100">
-        <v>5.261395454406738</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>-1267</v>
+        <v>-10.39000034332275</v>
       </c>
       <c r="B101">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C101">
-        <v>1256.25</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>117.860466003418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>-210.3800048828125</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B102">
         <v>10.39000034332275</v>
       </c>
       <c r="C102">
-        <v>199.9900054931641</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D102">
-        <v>20.24831581115723</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>-256.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B103">
         <v>10.39000034332275</v>
       </c>
       <c r="C103">
-        <v>246.1100006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D103">
-        <v>24.68719863891602</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>-633</v>
+        <v>-10.75</v>
       </c>
       <c r="B104">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C104">
-        <v>622.6099853515625</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>60.9239616394043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1861,16 +1861,16 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>-10.39000034332275</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B106">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1878,55 +1878,55 @@
         <v>-56.56000137329102</v>
       </c>
       <c r="B107">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C107">
-        <v>46.17000198364258</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D107">
-        <v>5.443696022033691</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>-232.3800048828125</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B108">
         <v>10.39000034332275</v>
       </c>
       <c r="C108">
-        <v>221.9900054931641</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D108">
-        <v>22.36573600769043</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>-412.25</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B109">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C109">
-        <v>401.5</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D109">
-        <v>38.34883880615234</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>-656.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B110">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C110">
-        <v>645.75</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D110">
-        <v>61.06976699829102</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1945,226 +1945,226 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>-612</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B112">
         <v>10.39000034332275</v>
       </c>
       <c r="C112">
-        <v>601.6099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D112">
-        <v>58.90279006958008</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>-10.75</v>
+        <v>-66.75</v>
       </c>
       <c r="B113">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>56.36000061035156</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>6.424446582794189</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>-665</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B114">
         <v>10.39000034332275</v>
       </c>
       <c r="C114">
-        <v>654.6099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D114">
-        <v>64.00384521484375</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>-218.5</v>
+        <v>-66.55999755859375</v>
       </c>
       <c r="B115">
         <v>10.39000034332275</v>
       </c>
       <c r="C115">
-        <v>208.1100006103516</v>
+        <v>56.16999816894531</v>
       </c>
       <c r="D115">
-        <v>21.02983474731445</v>
+        <v>6.406159400939941</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>-1026</v>
+        <v>-10.39000034332275</v>
       </c>
       <c r="B116">
         <v>10.39000034332275</v>
       </c>
       <c r="C116">
-        <v>1015.609985351562</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>98.74879455566406</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>-210.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B117">
         <v>10.39000034332275</v>
       </c>
       <c r="C117">
-        <v>200.3600006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D117">
-        <v>20.28392601013184</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>-256.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B118">
         <v>10.39000034332275</v>
       </c>
       <c r="C118">
-        <v>246.1100006103516</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D118">
-        <v>24.68719863891602</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>-266.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B119">
         <v>10.39000034332275</v>
       </c>
       <c r="C119">
-        <v>256.1099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D119">
-        <v>25.64966201782227</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>-12.67000007629395</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B120">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C120">
-        <v>2.279999732971191</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D120">
-        <v>1.219441771507263</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>-1012</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B121">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C121">
-        <v>1001.25</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D121">
-        <v>94.13953399658203</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>-266.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B122">
         <v>10.39000034332275</v>
       </c>
       <c r="C122">
-        <v>256.1099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D122">
-        <v>25.64966201782227</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>-420.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B123">
         <v>10.39000034332275</v>
       </c>
       <c r="C123">
-        <v>410.1099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D123">
-        <v>40.47160720825195</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>-266.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B124">
         <v>10.39000034332275</v>
       </c>
       <c r="C124">
-        <v>256.1099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D124">
-        <v>25.64966201782227</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>-1621</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B125">
         <v>10.39000034332275</v>
       </c>
       <c r="C125">
-        <v>1610.609985351562</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D125">
-        <v>156.0153961181641</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>-10.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B126">
-        <v>10.75</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>-612</v>
+        <v>-12.1899995803833</v>
       </c>
       <c r="B127">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C127">
-        <v>601.6099853515625</v>
+        <v>1.439999580383301</v>
       </c>
       <c r="D127">
-        <v>58.90279006958008</v>
+        <v>1.133953452110291</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2197,16 +2197,16 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>-616</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B130">
         <v>10.39000034332275</v>
       </c>
       <c r="C130">
-        <v>605.6099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D130">
-        <v>59.28777313232422</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2228,69 +2228,4073 @@
         <v>-56.56000137329102</v>
       </c>
       <c r="B132">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C132">
-        <v>46.17000198364258</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D132">
-        <v>5.443696022033691</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>-256.5</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B133">
         <v>10.75</v>
       </c>
       <c r="C133">
-        <v>245.75</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D133">
-        <v>23.86046600341797</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>-210.75</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B134">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C134">
-        <v>200.3600006103516</v>
+        <v>45.81000137329102</v>
       </c>
       <c r="D134">
-        <v>20.28392601013184</v>
+        <v>5.261395454406738</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>-275</v>
+        <v>-56.56000137329102</v>
       </c>
       <c r="B135">
         <v>10.39000034332275</v>
       </c>
       <c r="C135">
-        <v>264.6099853515625</v>
+        <v>46.17000198364258</v>
       </c>
       <c r="D135">
-        <v>26.4677562713623</v>
+        <v>5.443696022033691</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>-226.75</v>
+        <v>-10.75</v>
       </c>
       <c r="B136">
-        <v>10.39000034332275</v>
+        <v>10.75</v>
       </c>
       <c r="C136">
-        <v>216.3600006103516</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>21.82386779785156</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B137">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C137">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D137">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B138">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C138">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D138">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B139">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C139">
+        <v>1.799999237060547</v>
+      </c>
+      <c r="D139">
+        <v>1.173243403434753</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>-68.87999725341797</v>
+      </c>
+      <c r="B140">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C140">
+        <v>58.48999786376953</v>
+      </c>
+      <c r="D140">
+        <v>6.629450798034668</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B141">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C141">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D141">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B142">
+        <v>10.75</v>
+      </c>
+      <c r="C142">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D142">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B143">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C143">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D143">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B144">
+        <v>10.75</v>
+      </c>
+      <c r="C144">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D144">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B145">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C145">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D145">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>-66.55999755859375</v>
+      </c>
+      <c r="B146">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C146">
+        <v>56.16999816894531</v>
+      </c>
+      <c r="D146">
+        <v>6.406159400939941</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B147">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C147">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D147">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B148">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C148">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D148">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B149">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C149">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D149">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B150">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C150">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D150">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B151">
+        <v>10.75</v>
+      </c>
+      <c r="C151">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D151">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B152">
+        <v>10.75</v>
+      </c>
+      <c r="C152">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D152">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B153">
+        <v>10.75</v>
+      </c>
+      <c r="C153">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D153">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B154">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C154">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D154">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B155">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C155">
+        <v>1.799999237060547</v>
+      </c>
+      <c r="D155">
+        <v>1.173243403434753</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B156">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C156">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D156">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B157">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C157">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D157">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B158">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C158">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D158">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B159">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C159">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D159">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B160">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C160">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D160">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B161">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C161">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D161">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B162">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C162">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D162">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B163">
+        <v>10.75</v>
+      </c>
+      <c r="C163">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D163">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B164">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C164">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D164">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B165">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C165">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D165">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B166">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C166">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D166">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B167">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C167">
+        <v>1.799999237060547</v>
+      </c>
+      <c r="D167">
+        <v>1.173243403434753</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B168">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C168">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D168">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B169">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C169">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D169">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B170">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C170">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D170">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B171">
+        <v>10.75</v>
+      </c>
+      <c r="C171">
+        <v>1.439999580383301</v>
+      </c>
+      <c r="D171">
+        <v>1.133953452110291</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B172">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C172">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D172">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B173">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C173">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D173">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B174">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C174">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D174">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>-10.39000034332275</v>
+      </c>
+      <c r="B175">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B176">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C176">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D176">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B177">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C177">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D177">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B178">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C178">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D178">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B179">
+        <v>10.75</v>
+      </c>
+      <c r="C179">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D179">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B180">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C180">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D180">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>-10.75</v>
+      </c>
+      <c r="B181">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C181">
+        <v>0.3599996566772461</v>
+      </c>
+      <c r="D181">
+        <v>1.034648656845093</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>-10.75</v>
+      </c>
+      <c r="B182">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C182">
+        <v>0.3599996566772461</v>
+      </c>
+      <c r="D182">
+        <v>1.034648656845093</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>-66.75</v>
+      </c>
+      <c r="B183">
+        <v>10.75</v>
+      </c>
+      <c r="C183">
+        <v>56</v>
+      </c>
+      <c r="D183">
+        <v>6.209302425384521</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>-64.80999755859375</v>
+      </c>
+      <c r="B184">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C184">
+        <v>54.41999816894531</v>
+      </c>
+      <c r="D184">
+        <v>6.237728118896484</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B185">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C185">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D185">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B186">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C186">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D186">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B187">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C187">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D187">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B188">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C188">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D188">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B189">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C189">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D189">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B190">
+        <v>10.75</v>
+      </c>
+      <c r="C190">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D190">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B191">
+        <v>10.75</v>
+      </c>
+      <c r="C191">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D191">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B192">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C192">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D192">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B193">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C193">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D193">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B194">
+        <v>10.75</v>
+      </c>
+      <c r="C194">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D194">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B195">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C195">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D195">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B196">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C196">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D196">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B197">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C197">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D197">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B198">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C198">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D198">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B199">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C199">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D199">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B200">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C200">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D200">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B201">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C201">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D201">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B202">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C202">
+        <v>1.799999237060547</v>
+      </c>
+      <c r="D202">
+        <v>1.173243403434753</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203">
+        <v>-66.75</v>
+      </c>
+      <c r="B203">
+        <v>10.75</v>
+      </c>
+      <c r="C203">
+        <v>56</v>
+      </c>
+      <c r="D203">
+        <v>6.209302425384521</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B204">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C204">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D204">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B205">
+        <v>10.75</v>
+      </c>
+      <c r="C205">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D205">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B206">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C206">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D206">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B207">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C207">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D207">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B208">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C208">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D208">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B209">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C209">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D209">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B210">
+        <v>10.75</v>
+      </c>
+      <c r="C210">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D210">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B211">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C211">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D211">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B212">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C212">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D212">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B213">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C213">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D213">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B214">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C214">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D214">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B215">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C215">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D215">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B216">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C216">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D216">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B217">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C217">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D217">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B218">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C218">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D218">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B219">
+        <v>10.75</v>
+      </c>
+      <c r="C219">
+        <v>1.439999580383301</v>
+      </c>
+      <c r="D219">
+        <v>1.133953452110291</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B220">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C220">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D220">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B221">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C221">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D221">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B222">
+        <v>10.75</v>
+      </c>
+      <c r="C222">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D222">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B223">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C223">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D223">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224">
+        <v>-10.75</v>
+      </c>
+      <c r="B224">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C224">
+        <v>0.3599996566772461</v>
+      </c>
+      <c r="D224">
+        <v>1.034648656845093</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>-66.75</v>
+      </c>
+      <c r="B225">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C225">
+        <v>56.36000061035156</v>
+      </c>
+      <c r="D225">
+        <v>6.424446582794189</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B226">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C226">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D226">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B227">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C227">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D227">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B228">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C228">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D228">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229">
+        <v>-10.75</v>
+      </c>
+      <c r="B229">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C229">
+        <v>0.3599996566772461</v>
+      </c>
+      <c r="D229">
+        <v>1.034648656845093</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B230">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C230">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D230">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B231">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C231">
+        <v>1.799999237060547</v>
+      </c>
+      <c r="D231">
+        <v>1.173243403434753</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B232">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C232">
+        <v>1.799999237060547</v>
+      </c>
+      <c r="D232">
+        <v>1.173243403434753</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B233">
+        <v>10.75</v>
+      </c>
+      <c r="C233">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D233">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B234">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C234">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D234">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B235">
+        <v>10.75</v>
+      </c>
+      <c r="C235">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D235">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B236">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C236">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D236">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B237">
+        <v>10.75</v>
+      </c>
+      <c r="C237">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D237">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B238">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C238">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D238">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B239">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C239">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D239">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B240">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C240">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D240">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B241">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C241">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D241">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B242">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C242">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D242">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B243">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C243">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D243">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B244">
+        <v>10.75</v>
+      </c>
+      <c r="C244">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D244">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B245">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C245">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D245">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246">
+        <v>-10.39000034332275</v>
+      </c>
+      <c r="B246">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247">
+        <v>-10.75</v>
+      </c>
+      <c r="B247">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C247">
+        <v>0.3599996566772461</v>
+      </c>
+      <c r="D247">
+        <v>1.034648656845093</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248">
+        <v>-10.75</v>
+      </c>
+      <c r="B248">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C248">
+        <v>0.3599996566772461</v>
+      </c>
+      <c r="D248">
+        <v>1.034648656845093</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B249">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C249">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D249">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B250">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C250">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D250">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B251">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C251">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D251">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B252">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C252">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D252">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B253">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C253">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D253">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B254">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C254">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D254">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B255">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C255">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D255">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B256">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C256">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D256">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B257">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C257">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D257">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B258">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C258">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D258">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B259">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C259">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D259">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B260">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C260">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D260">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B261">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C261">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D261">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B262">
+        <v>10.75</v>
+      </c>
+      <c r="C262">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D262">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B263">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C263">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D263">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B264">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C264">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D264">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B265">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C265">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D265">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B266">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C266">
+        <v>1.799999237060547</v>
+      </c>
+      <c r="D266">
+        <v>1.173243403434753</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B267">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C267">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D267">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B268">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C268">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D268">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B269">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C269">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D269">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B270">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C270">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D270">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B271">
+        <v>10.75</v>
+      </c>
+      <c r="C271">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D271">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B272">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C272">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D272">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B273">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C273">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D273">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B274">
+        <v>10.75</v>
+      </c>
+      <c r="C274">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D274">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B275">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C275">
+        <v>1.799999237060547</v>
+      </c>
+      <c r="D275">
+        <v>1.173243403434753</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B276">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C276">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D276">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B277">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C277">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D277">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B278">
+        <v>10.75</v>
+      </c>
+      <c r="C278">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D278">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B279">
+        <v>10.75</v>
+      </c>
+      <c r="C279">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D279">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B280">
+        <v>10.75</v>
+      </c>
+      <c r="C280">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D280">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B281">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C281">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D281">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B282">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C282">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D282">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B283">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C283">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D283">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B284">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C284">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D284">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B285">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C285">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D285">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B286">
+        <v>10.75</v>
+      </c>
+      <c r="C286">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D286">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B287">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C287">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D287">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>-10.39000034332275</v>
+      </c>
+      <c r="B288">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289">
+        <v>-10.39000034332275</v>
+      </c>
+      <c r="B289">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B290">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C290">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D290">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B291">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C291">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D291">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B292">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C292">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D292">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B293">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C293">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D293">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B294">
+        <v>10.75</v>
+      </c>
+      <c r="C294">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D294">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B295">
+        <v>10.75</v>
+      </c>
+      <c r="C295">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D295">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B296">
+        <v>10.75</v>
+      </c>
+      <c r="C296">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D296">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B297">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C297">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D297">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B298">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C298">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D298">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B299">
+        <v>10.75</v>
+      </c>
+      <c r="C299">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D299">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B300">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C300">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D300">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>-10.39000034332275</v>
+      </c>
+      <c r="B301">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B302">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C302">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D302">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B303">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C303">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D303">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304">
+        <v>-10.75</v>
+      </c>
+      <c r="B304">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C304">
+        <v>0.3599996566772461</v>
+      </c>
+      <c r="D304">
+        <v>1.034648656845093</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B305">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C305">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D305">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B306">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C306">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D306">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B307">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C307">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D307">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B308">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C308">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D308">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B309">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C309">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D309">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310">
+        <v>-10.39000034332275</v>
+      </c>
+      <c r="B310">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B311">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C311">
+        <v>1.799999237060547</v>
+      </c>
+      <c r="D311">
+        <v>1.173243403434753</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B312">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C312">
+        <v>1.799999237060547</v>
+      </c>
+      <c r="D312">
+        <v>1.173243403434753</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B313">
+        <v>10.75</v>
+      </c>
+      <c r="C313">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D313">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B314">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C314">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D314">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B315">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C315">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D315">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B316">
+        <v>10.75</v>
+      </c>
+      <c r="C316">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D316">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B317">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C317">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D317">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B318">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C318">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D318">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B319">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C319">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D319">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B320">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C320">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D320">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B321">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C321">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D321">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B322">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C322">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D322">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B323">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C323">
+        <v>1.799999237060547</v>
+      </c>
+      <c r="D323">
+        <v>1.173243403434753</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B324">
+        <v>10.75</v>
+      </c>
+      <c r="C324">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D324">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B325">
+        <v>10.75</v>
+      </c>
+      <c r="C325">
+        <v>1.439999580383301</v>
+      </c>
+      <c r="D325">
+        <v>1.133953452110291</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B326">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C326">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D326">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B327">
+        <v>10.75</v>
+      </c>
+      <c r="C327">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D327">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B328">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C328">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D328">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B329">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C329">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D329">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B330">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C330">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D330">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B331">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C331">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D331">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B332">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C332">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D332">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B333">
+        <v>10.75</v>
+      </c>
+      <c r="C333">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D333">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B334">
+        <v>10.75</v>
+      </c>
+      <c r="C334">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D334">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B335">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C335">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D335">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B336">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C336">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D336">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B337">
+        <v>10.75</v>
+      </c>
+      <c r="C337">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D337">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B338">
+        <v>10.75</v>
+      </c>
+      <c r="C338">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D338">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B339">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C339">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D339">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B340">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C340">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D340">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B341">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C341">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D341">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B342">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C342">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D342">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343">
+        <v>-10.75</v>
+      </c>
+      <c r="B343">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C343">
+        <v>0.3599996566772461</v>
+      </c>
+      <c r="D343">
+        <v>1.034648656845093</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B344">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C344">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D344">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345">
+        <v>-10.39000034332275</v>
+      </c>
+      <c r="B345">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B346">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C346">
+        <v>1.799999237060547</v>
+      </c>
+      <c r="D346">
+        <v>1.173243403434753</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B347">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C347">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D347">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B348">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C348">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D348">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B349">
+        <v>10.75</v>
+      </c>
+      <c r="C349">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D349">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B350">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C350">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D350">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B351">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C351">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D351">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B352">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C352">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D352">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B353">
+        <v>10.75</v>
+      </c>
+      <c r="C353">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D353">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354">
+        <v>-10.75</v>
+      </c>
+      <c r="B354">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C354">
+        <v>0.3599996566772461</v>
+      </c>
+      <c r="D354">
+        <v>1.034648656845093</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B355">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C355">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D355">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B356">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C356">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D356">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357">
+        <v>-10.75</v>
+      </c>
+      <c r="B357">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C357">
+        <v>0.3599996566772461</v>
+      </c>
+      <c r="D357">
+        <v>1.034648656845093</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B358">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C358">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D358">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B359">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C359">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D359">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B360">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C360">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D360">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B361">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C361">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D361">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B362">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C362">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D362">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B363">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C363">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D363">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B364">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C364">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D364">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365">
+        <v>-10.75</v>
+      </c>
+      <c r="B365">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C365">
+        <v>0.3599996566772461</v>
+      </c>
+      <c r="D365">
+        <v>1.034648656845093</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B366">
+        <v>10.75</v>
+      </c>
+      <c r="C366">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D366">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B367">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C367">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D367">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B368">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C368">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D368">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B369">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C369">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D369">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B370">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C370">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D370">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B371">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C371">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D371">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B372">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C372">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D372">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B373">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C373">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D373">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B374">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C374">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D374">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B375">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C375">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D375">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B376">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C376">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D376">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B377">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C377">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D377">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B378">
+        <v>10.75</v>
+      </c>
+      <c r="C378">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D378">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B379">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C379">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D379">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380">
+        <v>-10.39000034332275</v>
+      </c>
+      <c r="B380">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B381">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C381">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D381">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B382">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C382">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D382">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B383">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C383">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D383">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B384">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C384">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D384">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B385">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C385">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D385">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B386">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C386">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D386">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B387">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C387">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D387">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B388">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C388">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D388">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B389">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C389">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D389">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B390">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C390">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D390">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B391">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C391">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D391">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B392">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C392">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D392">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B393">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C393">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D393">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394">
+        <v>-10.75</v>
+      </c>
+      <c r="B394">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C394">
+        <v>0.3599996566772461</v>
+      </c>
+      <c r="D394">
+        <v>1.034648656845093</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B395">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C395">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D395">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B396">
+        <v>10.75</v>
+      </c>
+      <c r="C396">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D396">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B397">
+        <v>10.75</v>
+      </c>
+      <c r="C397">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D397">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B398">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C398">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D398">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B399">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C399">
+        <v>1.799999237060547</v>
+      </c>
+      <c r="D399">
+        <v>1.173243403434753</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400">
+        <v>-10.75</v>
+      </c>
+      <c r="B400">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C400">
+        <v>0.3599996566772461</v>
+      </c>
+      <c r="D400">
+        <v>1.034648656845093</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B401">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C401">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D401">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B402">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C402">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D402">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B403">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C403">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D403">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B404">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C404">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D404">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B405">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C405">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D405">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B406">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C406">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D406">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B407">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C407">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D407">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408">
+        <v>-12.1899995803833</v>
+      </c>
+      <c r="B408">
+        <v>10.75</v>
+      </c>
+      <c r="C408">
+        <v>1.439999580383301</v>
+      </c>
+      <c r="D408">
+        <v>1.133953452110291</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B409">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C409">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D409">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B410">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C410">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D410">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B411">
+        <v>10.75</v>
+      </c>
+      <c r="C411">
+        <v>45.81000137329102</v>
+      </c>
+      <c r="D411">
+        <v>5.261395454406738</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B412">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C412">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D412">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B413">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C413">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D413">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B414">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C414">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D414">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B415">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C415">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D415">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416">
+        <v>-64.80999755859375</v>
+      </c>
+      <c r="B416">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C416">
+        <v>54.41999816894531</v>
+      </c>
+      <c r="D416">
+        <v>6.237728118896484</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417">
+        <v>-64.80999755859375</v>
+      </c>
+      <c r="B417">
+        <v>10.75</v>
+      </c>
+      <c r="C417">
+        <v>54.05999755859375</v>
+      </c>
+      <c r="D417">
+        <v>6.028837203979492</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B418">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C418">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D418">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B419">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C419">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D419">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420">
+        <v>-16.21999931335449</v>
+      </c>
+      <c r="B420">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C420">
+        <v>5.829998970031738</v>
+      </c>
+      <c r="D420">
+        <v>1.561116337776184</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B421">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C421">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D421">
+        <v>5.443696022033691</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422">
+        <v>-56.56000137329102</v>
+      </c>
+      <c r="B422">
+        <v>10.39000034332275</v>
+      </c>
+      <c r="C422">
+        <v>46.17000198364258</v>
+      </c>
+      <c r="D422">
+        <v>5.443696022033691</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/test_ppo/testing_episode_output.xlsx
+++ b/Logs/test_ppo/testing_episode_output.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,72 +405,3488 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-10.75</v>
+        <v>-20.65999984741211</v>
       </c>
       <c r="B2">
-        <v>10.39000034332275</v>
+        <v>18.11000061035156</v>
       </c>
       <c r="C2">
-        <v>0.3599996566772461</v>
+        <v>2.549999237060547</v>
       </c>
       <c r="D2">
-        <v>1.034648656845093</v>
+        <v>1.140806078910828</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>-10.75</v>
+        <v>-20.65999984741211</v>
       </c>
       <c r="B3">
-        <v>10.39000034332275</v>
+        <v>18.11000061035156</v>
       </c>
       <c r="C3">
-        <v>0.3599996566772461</v>
+        <v>2.549999237060547</v>
       </c>
       <c r="D3">
-        <v>1.034648656845093</v>
+        <v>1.140806078910828</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>-10.75</v>
+        <v>-20.65999984741211</v>
       </c>
       <c r="B4">
-        <v>10.39000034332275</v>
+        <v>17.71999931335449</v>
       </c>
       <c r="C4">
-        <v>0.3599996566772461</v>
+        <v>2.940000534057617</v>
       </c>
       <c r="D4">
-        <v>1.034648656845093</v>
+        <v>1.165914297103882</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>-10.75</v>
+        <v>-20.65999984741211</v>
       </c>
       <c r="B5">
-        <v>10.39000034332275</v>
+        <v>20.65999984741211</v>
       </c>
       <c r="C5">
-        <v>0.3599996566772461</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.034648656845093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>-10.75</v>
+        <v>-20.65999984741211</v>
       </c>
       <c r="B6">
-        <v>10.39000034332275</v>
+        <v>18.11000061035156</v>
       </c>
       <c r="C6">
-        <v>0.3599996566772461</v>
+        <v>2.549999237060547</v>
       </c>
       <c r="D6">
-        <v>1.034648656845093</v>
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B7">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C7">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D7">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B8">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C8">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D8">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B9">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C9">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D9">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B10">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C10">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D10">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B11">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C11">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D11">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B12">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C12">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D12">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B13">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C13">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D13">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B14">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C14">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D14">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B15">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B16">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C16">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D16">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B17">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C17">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D17">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B18">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C18">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D18">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B19">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C19">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D19">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B20">
+        <v>18.55999946594238</v>
+      </c>
+      <c r="C20">
+        <v>2.100000381469727</v>
+      </c>
+      <c r="D20">
+        <v>1.113146543502808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B21">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C21">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D21">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B22">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C22">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D22">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B23">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C23">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D23">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B24">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C24">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D24">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B25">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C25">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D25">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B26">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C26">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D26">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B27">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="C27">
+        <v>0.3799991607666016</v>
+      </c>
+      <c r="D27">
+        <v>1.01873767375946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B28">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C28">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D28">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B29">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C29">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D29">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B30">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C30">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D30">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B31">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C31">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D31">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B32">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B33">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="C33">
+        <v>3.860000610351562</v>
+      </c>
+      <c r="D33">
+        <v>1.229761958122253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B34">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C34">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D34">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B35">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C35">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D35">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B36">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C36">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D36">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B37">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C37">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D37">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B38">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B39">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C39">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D39">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B40">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C40">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D40">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B41">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C41">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D41">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B42">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C42">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D42">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B43">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B44">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C44">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D44">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B45">
+        <v>18.55999946594238</v>
+      </c>
+      <c r="C45">
+        <v>2.100000381469727</v>
+      </c>
+      <c r="D45">
+        <v>1.113146543502808</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B46">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C46">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D46">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B47">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C47">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D47">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B48">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B49">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="C49">
+        <v>0.3799991607666016</v>
+      </c>
+      <c r="D49">
+        <v>1.01873767375946</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B50">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C50">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D50">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B51">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C51">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D51">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B52">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C52">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D52">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B53">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C53">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D53">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B54">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C54">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D54">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B55">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C55">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D55">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B56">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B57">
+        <v>18.55999946594238</v>
+      </c>
+      <c r="C57">
+        <v>2.100000381469727</v>
+      </c>
+      <c r="D57">
+        <v>1.113146543502808</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B58">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C58">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D58">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B59">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C59">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D59">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B60">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C60">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D60">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B61">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C61">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D61">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B62">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B63">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C63">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D63">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B64">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C64">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D64">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B65">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C65">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D65">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B66">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C66">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D66">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B67">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C67">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D67">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B68">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C68">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D68">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B69">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C69">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D69">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B70">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C70">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D70">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B71">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C71">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D71">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B72">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C72">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D72">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B73">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C73">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D73">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B74">
+        <v>18.55999946594238</v>
+      </c>
+      <c r="C74">
+        <v>2.100000381469727</v>
+      </c>
+      <c r="D74">
+        <v>1.113146543502808</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B75">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C75">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D75">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B76">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C76">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D76">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B77">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C77">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D77">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B78">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C78">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D78">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B79">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C79">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D79">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B80">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C80">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D80">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B81">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C81">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D81">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B82">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C82">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D82">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B83">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C83">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D83">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B84">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B85">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C85">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D85">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B86">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C86">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D86">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B87">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B88">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C88">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D88">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B89">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C89">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D89">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B90">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C90">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D90">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B91">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C91">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D91">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B92">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C92">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D92">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B93">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B94">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C94">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D94">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B95">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C95">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D95">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B96">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B97">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C97">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D97">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B98">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C98">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D98">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B99">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C99">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D99">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B100">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C100">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D100">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B101">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C101">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D101">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B102">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C102">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D102">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B103">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C103">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D103">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B104">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C104">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D104">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B105">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C105">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D105">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B106">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C106">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D106">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B107">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C107">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D107">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B108">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C108">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D108">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B109">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C109">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D109">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B110">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C110">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D110">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B111">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C111">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D111">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B112">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C112">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D112">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B113">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C113">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D113">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B114">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C114">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D114">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B115">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B116">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C116">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D116">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B117">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C117">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D117">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B118">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C118">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D118">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B119">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C119">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D119">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B120">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C120">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D120">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B121">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C121">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D121">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B122">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C122">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D122">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B123">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C123">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D123">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B124">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C124">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D124">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B125">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C125">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D125">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B126">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C126">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D126">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B127">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C127">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D127">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B128">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="C128">
+        <v>0.3799991607666016</v>
+      </c>
+      <c r="D128">
+        <v>1.01873767375946</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B129">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C129">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D129">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B130">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C130">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D130">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B131">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C131">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D131">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B132">
+        <v>18.55999946594238</v>
+      </c>
+      <c r="C132">
+        <v>2.100000381469727</v>
+      </c>
+      <c r="D132">
+        <v>1.113146543502808</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B133">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B134">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C134">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D134">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B135">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C135">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D135">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B136">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B137">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C137">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D137">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B138">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C138">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D138">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B139">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C139">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D139">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B140">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C140">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D140">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B141">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C141">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D141">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B142">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B143">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C143">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D143">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B144">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C144">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D144">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B145">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C145">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D145">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B146">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="C146">
+        <v>3.860000610351562</v>
+      </c>
+      <c r="D146">
+        <v>1.229761958122253</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B147">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C147">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D147">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B148">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C148">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D148">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B149">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C149">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D149">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B150">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C150">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D150">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B151">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="C151">
+        <v>3.860000610351562</v>
+      </c>
+      <c r="D151">
+        <v>1.229761958122253</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B152">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C152">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D152">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B153">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C153">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D153">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B154">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C154">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D154">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B155">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C155">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D155">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B156">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C156">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D156">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B157">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C157">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D157">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B158">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C158">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D158">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B159">
+        <v>18.55999946594238</v>
+      </c>
+      <c r="C159">
+        <v>2.100000381469727</v>
+      </c>
+      <c r="D159">
+        <v>1.113146543502808</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B160">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C160">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D160">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B161">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C161">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D161">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B162">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C162">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D162">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B163">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C163">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D163">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B164">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C164">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D164">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B165">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C165">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D165">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B166">
+        <v>18.55999946594238</v>
+      </c>
+      <c r="C166">
+        <v>2.100000381469727</v>
+      </c>
+      <c r="D166">
+        <v>1.113146543502808</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B167">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C167">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D167">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B168">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C168">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D168">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B169">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C169">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D169">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B170">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C170">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D170">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B171">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C171">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D171">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B172">
+        <v>18.55999946594238</v>
+      </c>
+      <c r="C172">
+        <v>2.100000381469727</v>
+      </c>
+      <c r="D172">
+        <v>1.113146543502808</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B173">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C173">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D173">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B174">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C174">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D174">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B175">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C175">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D175">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B176">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C176">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D176">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B177">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C177">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D177">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B178">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C178">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D178">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B179">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C179">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D179">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B180">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C180">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D180">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B181">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C181">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D181">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B182">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C182">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D182">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B183">
+        <v>18.55999946594238</v>
+      </c>
+      <c r="C183">
+        <v>2.100000381469727</v>
+      </c>
+      <c r="D183">
+        <v>1.113146543502808</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B184">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C184">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D184">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B185">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C185">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D185">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B186">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C186">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D186">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B187">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C187">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D187">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B188">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C188">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D188">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B189">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="C189">
+        <v>3.860000610351562</v>
+      </c>
+      <c r="D189">
+        <v>1.229761958122253</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B190">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B191">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C191">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D191">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B192">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C192">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D192">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B193">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C193">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D193">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B194">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C194">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D194">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B195">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C195">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D195">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B196">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C196">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D196">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B197">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C197">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D197">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B198">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C198">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D198">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B199">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C199">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D199">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B200">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C200">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D200">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B201">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C201">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D201">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B202">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C202">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D202">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B203">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C203">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D203">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B204">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B205">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C205">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D205">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B206">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C206">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D206">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B207">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C207">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D207">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B208">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C208">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D208">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B209">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C209">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D209">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B210">
+        <v>18.55999946594238</v>
+      </c>
+      <c r="C210">
+        <v>2.100000381469727</v>
+      </c>
+      <c r="D210">
+        <v>1.113146543502808</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B211">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C211">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D211">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B212">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C212">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D212">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B213">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="C213">
+        <v>3.860000610351562</v>
+      </c>
+      <c r="D213">
+        <v>1.229761958122253</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B214">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C214">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D214">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B215">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C215">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D215">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B216">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C216">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D216">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B217">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C217">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D217">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B218">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C218">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D218">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B219">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C219">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D219">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B220">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C220">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D220">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B221">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C221">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D221">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B222">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C222">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D222">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B223">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C223">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D223">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B224">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C224">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D224">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B225">
+        <v>18.55999946594238</v>
+      </c>
+      <c r="C225">
+        <v>2.100000381469727</v>
+      </c>
+      <c r="D225">
+        <v>1.113146543502808</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B226">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C226">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D226">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B227">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C227">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D227">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B228">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C228">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D228">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B229">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C229">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D229">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B230">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="C230">
+        <v>3.860000610351562</v>
+      </c>
+      <c r="D230">
+        <v>1.229761958122253</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B231">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C231">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D231">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B232">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C232">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D232">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B233">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C233">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D233">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B234">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C234">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D234">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B235">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C235">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D235">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B236">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C236">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D236">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B237">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C237">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D237">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B238">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C238">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D238">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B239">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C239">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D239">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B240">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C240">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D240">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B241">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C241">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D241">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B242">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C242">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D242">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B243">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C243">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D243">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B244">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C244">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D244">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B245">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C245">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D245">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B246">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C246">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D246">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B247">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C247">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D247">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B248">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C248">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D248">
+        <v>1.165914297103882</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B249">
+        <v>18.11000061035156</v>
+      </c>
+      <c r="C249">
+        <v>2.549999237060547</v>
+      </c>
+      <c r="D249">
+        <v>1.140806078910828</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>-20.65999984741211</v>
+      </c>
+      <c r="B250">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C250">
+        <v>2.940000534057617</v>
+      </c>
+      <c r="D250">
+        <v>1.165914297103882</v>
       </c>
     </row>
   </sheetData>
